--- a/port.xlsx
+++ b/port.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bekishev\Desktop\Portfolio_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sereja\Python Projects\stock_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F44D2E-62B3-4008-AC73-3B2580468123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37F069-FECF-4986-8759-EE269869160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="32">
   <si>
     <t>SVCB</t>
   </si>
@@ -84,13 +87,52 @@
     <t>Тикер</t>
   </si>
   <si>
-    <t>Операция</t>
+    <t>Операция (buy/sell)</t>
   </si>
   <si>
-    <t>Количество штук</t>
+    <t>Количество штук, акций</t>
   </si>
   <si>
-    <t>Цена</t>
+    <t>Цена, руб</t>
+  </si>
+  <si>
+    <t>ETLN</t>
+  </si>
+  <si>
+    <t>POSI</t>
+  </si>
+  <si>
+    <t>MAGN</t>
+  </si>
+  <si>
+    <t>RAGR</t>
+  </si>
+  <si>
+    <t>EQMX</t>
+  </si>
+  <si>
+    <t>RU000A101FH6</t>
+  </si>
+  <si>
+    <t>RU000A104362</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>BOND</t>
+  </si>
+  <si>
+    <t>ROSN</t>
+  </si>
+  <si>
+    <t>INGO</t>
+  </si>
+  <si>
+    <t>SCU5</t>
   </si>
 </sst>
 </file>
@@ -409,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,44 +483,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45884</v>
+        <v>45091</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>16.260000000000002</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45884</v>
+        <v>45124</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>6420</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45887</v>
+        <v>45187</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -487,330 +529,3917 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>395.02</v>
+        <v>51.664999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45887</v>
+        <v>45190</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>128.19999999999999</v>
+        <v>78.739999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45891</v>
+        <v>45195</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>19000</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.86680000000000001</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45891</v>
+        <v>45195</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>474</v>
       </c>
       <c r="E7">
-        <v>452.537037</v>
+        <v>2.2252953607594939</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45891</v>
+        <v>45202</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>364.9</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45891</v>
+        <v>45210</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>790</v>
       </c>
       <c r="E9">
-        <v>121.44</v>
+        <v>2.2563291139240507</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45915</v>
+        <v>45223</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>131.1</v>
+        <v>511.79500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45915</v>
+        <v>45223</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>2918.5</v>
+        <v>87.56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45915</v>
+        <v>45224</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>11100</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1.7976000000000001</v>
+        <v>509.79500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45915</v>
+        <v>45230</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>582</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45915</v>
+        <v>45230</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>358.15</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45915</v>
+        <v>45258</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>358.65</v>
+        <v>466.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45916</v>
+        <v>45258</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>948</v>
       </c>
       <c r="E16">
-        <v>173.4</v>
+        <v>2.0234071708860757</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45916</v>
+        <v>45260</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>900</v>
+        <v>632</v>
       </c>
       <c r="E17">
-        <v>14.07</v>
+        <v>1.9443037974683544</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45931</v>
+        <v>45264</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>790</v>
       </c>
       <c r="E18">
-        <v>338.25</v>
+        <v>1.8512531645569619</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45931</v>
+        <v>45264</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>105.06</v>
+        <v>439.995</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45940</v>
+        <v>45265</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>12.11</v>
+        <v>69.94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45944</v>
+        <v>45265</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>1.8219000000000001</v>
+        <v>69.94</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45944</v>
+        <v>45272</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>79.73</v>
+        <v>778.99</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45944</v>
+        <v>45273</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>71.28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>442.99900000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1738</v>
+      </c>
+      <c r="E26">
+        <v>1.811392405063291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>2844</v>
-      </c>
-      <c r="E23">
-        <v>1.8219000000000001</v>
+      <c r="E27">
+        <v>83.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1264</v>
+      </c>
+      <c r="E28">
+        <v>1.8765743670886075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30">
+        <v>15.095000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>400</v>
+      </c>
+      <c r="E31">
+        <v>15.164999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>893.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>790</v>
+      </c>
+      <c r="E34">
+        <v>1.9841772151898733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>853.995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>87.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>790</v>
+      </c>
+      <c r="E38">
+        <v>1.8563164556962026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>906.49800000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>894.99909100000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>893.601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>865.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>17.175000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>798.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>474</v>
+      </c>
+      <c r="E49">
+        <v>1.688607594936709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>844.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52">
+        <v>14.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1580</v>
+      </c>
+      <c r="E53">
+        <v>1.3050632911392404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>73.319999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1106</v>
+      </c>
+      <c r="E56">
+        <v>1.4144665443037974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <v>14.494999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>793.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1264</v>
+      </c>
+      <c r="E59">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>14.225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <v>179.20857142857145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>594</v>
+      </c>
+      <c r="E64">
+        <v>135.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>135.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>174.54285714285714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>948</v>
+      </c>
+      <c r="E69">
+        <v>1.3536919810126582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>300</v>
+      </c>
+      <c r="E71">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>177.96571428571428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>76.040000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>757.46600000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>754.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1580</v>
+      </c>
+      <c r="E77">
+        <v>1.3481012658227849</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>700</v>
+      </c>
+      <c r="E78">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <v>176.8522857142857</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>316</v>
+      </c>
+      <c r="E81">
+        <v>1.3499683544303798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>132.44999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>2370</v>
+      </c>
+      <c r="E83">
+        <v>1.2462025316455696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>619.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>300</v>
+      </c>
+      <c r="E85">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>632</v>
+      </c>
+      <c r="E86">
+        <v>1.0886075949367089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>948</v>
+      </c>
+      <c r="E88">
+        <v>1.1955696202531645</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>127.55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>127.45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>127.65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>635.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>800</v>
+      </c>
+      <c r="E93">
+        <v>1.4776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>133.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1132</v>
+      </c>
+      <c r="E95">
+        <v>1.4825969999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>237</v>
+      </c>
+      <c r="E96">
+        <v>1.4834179999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>741</v>
+      </c>
+      <c r="E97">
+        <v>1.4878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>614.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>60</v>
+      </c>
+      <c r="E101">
+        <v>136.47999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>600</v>
+      </c>
+      <c r="E102">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>131.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>777.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>815.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>164</v>
+      </c>
+      <c r="E107">
+        <v>1.4943900000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>55</v>
+      </c>
+      <c r="E108">
+        <v>1.494364</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>980</v>
+      </c>
+      <c r="E109">
+        <v>1.4995000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>6670</v>
+      </c>
+      <c r="E110">
+        <v>1.499501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>5000</v>
+      </c>
+      <c r="E111">
+        <v>1.5204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>2158.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>738</v>
+      </c>
+      <c r="E113">
+        <v>1.5205010000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+      <c r="E114">
+        <v>1.5225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>6540</v>
+      </c>
+      <c r="E115">
+        <v>1.525901</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>599.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1896</v>
+      </c>
+      <c r="E118">
+        <v>1.1164556962025316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>632</v>
+      </c>
+      <c r="E119">
+        <v>1.1126582278481014</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+      <c r="E120">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>632</v>
+      </c>
+      <c r="E121">
+        <v>1.1126582278481014</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>150</v>
+      </c>
+      <c r="E122">
+        <v>1.5267999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>13200</v>
+      </c>
+      <c r="E123">
+        <v>1.5325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>30</v>
+      </c>
+      <c r="E124">
+        <v>310.08999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>1836.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>632</v>
+      </c>
+      <c r="E126">
+        <v>1.068354430379747</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>1928.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>325.62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>600</v>
+      </c>
+      <c r="E130">
+        <v>12.895</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>40</v>
+      </c>
+      <c r="E131">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>126.58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>70</v>
+      </c>
+      <c r="E134">
+        <v>1.537714</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>165</v>
+      </c>
+      <c r="E135">
+        <v>1.5430299999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>30</v>
+      </c>
+      <c r="E136">
+        <v>173.04</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>530.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>75</v>
+      </c>
+      <c r="E138">
+        <v>44.52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>30</v>
+      </c>
+      <c r="E139">
+        <v>1026.5999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>19400</v>
+      </c>
+      <c r="E140">
+        <v>1.5673999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>607.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>2724.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>30</v>
+      </c>
+      <c r="E143">
+        <v>144.96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144">
+        <v>193.59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>8356</v>
+      </c>
+      <c r="E145">
+        <v>1.5736000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>9500</v>
+      </c>
+      <c r="E146">
+        <v>1.5794999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>70</v>
+      </c>
+      <c r="E147">
+        <v>148.63999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>300</v>
+      </c>
+      <c r="E148">
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>44000</v>
+      </c>
+      <c r="E149">
+        <v>1.5873999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>1507.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>141.29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>691.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>11</v>
+      </c>
+      <c r="E153">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>110</v>
+      </c>
+      <c r="E154">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>1062.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>30</v>
+      </c>
+      <c r="E157">
+        <v>210.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>397.02</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>54</v>
+      </c>
+      <c r="E160">
+        <v>183.08</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>61</v>
+      </c>
+      <c r="E161">
+        <v>165.68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>1289.4000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>50</v>
+      </c>
+      <c r="E163">
+        <v>142.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+      <c r="E164">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>3472</v>
+      </c>
+      <c r="E165">
+        <v>1.6436999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>30</v>
+      </c>
+      <c r="E166">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>40</v>
+      </c>
+      <c r="E167">
+        <v>127.38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>38</v>
+      </c>
+      <c r="E168">
+        <v>127.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>2727</v>
+      </c>
+      <c r="E169">
+        <v>1.6533</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>665</v>
+      </c>
+      <c r="E170">
+        <v>138.44999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>12000</v>
+      </c>
+      <c r="E171">
+        <v>1.6637</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>30</v>
+      </c>
+      <c r="E172">
+        <v>1092.4000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1093.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>28</v>
+      </c>
+      <c r="E175">
+        <v>1098.87857143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>25</v>
+      </c>
+      <c r="E176">
+        <v>1282.4000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+      <c r="E177">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1221</v>
+      </c>
+      <c r="E179">
+        <v>1.670401</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>2000</v>
+      </c>
+      <c r="E180">
+        <v>1.6758</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>2817.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>6479</v>
+      </c>
+      <c r="E182">
+        <v>1.6768000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>3702</v>
+      </c>
+      <c r="E183">
+        <v>1.6768000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>1303.4000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185">
+        <v>130.82</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>16400</v>
+      </c>
+      <c r="E187">
+        <v>1.7034</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>2847</v>
+      </c>
+      <c r="E188">
+        <v>1.7035</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>1329.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>35000</v>
+      </c>
+      <c r="E191">
+        <v>1.7110000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="E192">
+        <v>6161.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>75</v>
+      </c>
+      <c r="E193">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B195" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>35</v>
+      </c>
+      <c r="E195">
+        <v>1128.0999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>20992</v>
+      </c>
+      <c r="E196">
+        <v>1.7129000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>78.790000000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>8742</v>
+      </c>
+      <c r="E198">
+        <v>1.7158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>99</v>
+      </c>
+      <c r="E199">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>184</v>
+      </c>
+      <c r="E200">
+        <v>136.85</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>6280.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>15</v>
+      </c>
+      <c r="E202">
+        <v>437.15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>73</v>
+      </c>
+      <c r="E203">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>60</v>
+      </c>
+      <c r="E204">
+        <v>114.02</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>100</v>
+      </c>
+      <c r="E205">
+        <v>111.98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>30</v>
+      </c>
+      <c r="E206">
+        <v>371.43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>625.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B210" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>15</v>
+      </c>
+      <c r="E210">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B211" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>15</v>
+      </c>
+      <c r="E211">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>117.97</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>392.09</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>394.12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>80</v>
+      </c>
+      <c r="E216">
+        <v>394.17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>100</v>
+      </c>
+      <c r="E217">
+        <v>110.48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>44</v>
+      </c>
+      <c r="E218">
+        <v>138.15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>20</v>
+      </c>
+      <c r="E219">
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>5800</v>
+      </c>
+      <c r="E220">
+        <v>1.7685</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B221" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221">
+        <v>70</v>
+      </c>
+      <c r="E221">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B222" t="s">
+        <v>28</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <v>7</v>
+      </c>
+      <c r="E222">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>100</v>
+      </c>
+      <c r="E223">
+        <v>127.52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>20</v>
+      </c>
+      <c r="E224">
+        <v>411.32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>6368.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>8600</v>
+      </c>
+      <c r="E226">
+        <v>1.7728999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>300</v>
+      </c>
+      <c r="E227">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>30</v>
+      </c>
+      <c r="E229">
+        <v>395.02</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>20</v>
+      </c>
+      <c r="E230">
+        <v>128.19999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>19000</v>
+      </c>
+      <c r="E231">
+        <v>0.86680000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>27</v>
+      </c>
+      <c r="E232">
+        <v>452.537037</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>50</v>
+      </c>
+      <c r="E233">
+        <v>364.9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>90</v>
+      </c>
+      <c r="E234">
+        <v>121.44</v>
       </c>
     </row>
   </sheetData>

--- a/port.xlsx
+++ b/port.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sereja\Python Projects\stock_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37F069-FECF-4986-8759-EE269869160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA682892-5BB8-4BE9-B1F3-DCDC170EBA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
